--- a/V1.5/data.xlsx
+++ b/V1.5/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FE8F1C-97C8-4A36-BDFD-6540C5A5442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB3CB1-8596-48BC-B380-4B79043C655C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="672" yWindow="3540" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -41,41 +40,45 @@
     <t>Key Messages</t>
   </si>
   <si>
-    <t>slide_2</t>
-  </si>
-  <si>
     <t>respective image</t>
   </si>
   <si>
     <t>popup slides (comma seprtd)</t>
   </si>
   <si>
-    <t>1111_Tremfya</t>
+    <t>11328_Spravato</t>
+  </si>
+  <si>
+    <t>Materiał informacyjny</t>
   </si>
   <si>
     <t>Założenia programu</t>
   </si>
   <si>
-    <t>Materiał informacyjny</t>
+    <t>Jak przystąpić do</t>
   </si>
   <si>
     <t>Slide_1</t>
+  </si>
+  <si>
+    <t>Slide_2</t>
+  </si>
+  <si>
+    <t>Slide_3</t>
+  </si>
+  <si>
+    <t>Slide_4</t>
+  </si>
+  <si>
+    <t>Slide_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -89,21 +92,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,16 +141,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,55 +477,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="74.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
